--- a/JS_Excel_files/11_EntireShippingCosts/11_EntireShippingCosts_1.xlsx
+++ b/JS_Excel_files/11_EntireShippingCosts/11_EntireShippingCosts_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amilas_Windows_VM\Documents\SheetCoPilot\SheetCopilot\output_dir\11_EntireShippingCosts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amilas_Windows_VM\Documents\SheetCoPilot\SheetCopilot\JS_Excel_files\11_EntireShippingCosts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD4549-2DCE-402E-B44D-A91A5ECEE8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28058EC0-E603-41FF-824F-56F3314BF357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="13695" xr2:uid="{134BE2BE-B2C4-40DC-9526-9AC5254CBFD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{134BE2BE-B2C4-40DC-9526-9AC5254CBFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="649" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -659,8 +659,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
